--- a/estimates/taxReform2001.xlsx
+++ b/estimates/taxReform2001.xlsx
@@ -96,7 +96,7 @@
     <t>pareto_coefficient_2001_wid</t>
   </si>
   <si>
-    <t>As estimated by downloadParetoCoefficient.R in the taxReform2001 folder</t>
+    <t>Calculated from data by the World Inequality Databse. See downloadParetoCoefficient.R in the taxReform2001 folder for details.</t>
   </si>
 </sst>
 </file>
@@ -909,7 +909,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1053,7 +1053,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1066,7 +1066,7 @@
       <c r="J6">
         <v>3</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="1" t="s">
         <v>25</v>
       </c>
     </row>
